--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/StructureDefinition-jp-medication.xlsx
@@ -503,7 +503,7 @@
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -584,7 +584,7 @@
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1218,7 +1218,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
